--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf2-Fgfr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Fgf2-Fgfr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -88,13 +88,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Fgf2</t>
   </si>
   <si>
     <t>Fgfr4</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +525,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.8896923333333334</v>
+        <v>1.066124666666667</v>
       </c>
       <c r="H2">
-        <v>2.669077</v>
+        <v>3.198374</v>
       </c>
       <c r="I2">
-        <v>0.09326752961394506</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="J2">
-        <v>0.09326752961394505</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8372556666666666</v>
+        <v>0.903185</v>
       </c>
       <c r="N2">
-        <v>2.511767</v>
+        <v>2.709555</v>
       </c>
       <c r="O2">
-        <v>0.04323017762831462</v>
+        <v>0.03154869388788047</v>
       </c>
       <c r="P2">
-        <v>0.04323017762831462</v>
+        <v>0.03154869388788046</v>
       </c>
       <c r="Q2">
-        <v>0.7448999476732222</v>
+        <v>0.9629078070633335</v>
       </c>
       <c r="R2">
-        <v>6.704099529059</v>
+        <v>8.666170263570001</v>
       </c>
       <c r="S2">
-        <v>0.004031971872164939</v>
+        <v>0.003294041830659423</v>
       </c>
       <c r="T2">
-        <v>0.004031971872164938</v>
+        <v>0.003294041830659422</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.8896923333333334</v>
+        <v>1.066124666666667</v>
       </c>
       <c r="H3">
-        <v>2.669077</v>
+        <v>3.198374</v>
       </c>
       <c r="I3">
-        <v>0.09326752961394506</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="J3">
-        <v>0.09326752961394505</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>0.331116</v>
       </c>
       <c r="O3">
-        <v>0.00569885801333365</v>
+        <v>0.003855347953955327</v>
       </c>
       <c r="P3">
-        <v>0.00569885801333365</v>
+        <v>0.003855347953955326</v>
       </c>
       <c r="Q3">
-        <v>0.09819712221466666</v>
+        <v>0.1176703117093333</v>
       </c>
       <c r="R3">
-        <v>0.883774099932</v>
+        <v>1.059032805384</v>
       </c>
       <c r="S3">
-        <v>0.0005315184085242644</v>
+        <v>0.000402542098167642</v>
       </c>
       <c r="T3">
-        <v>0.0005315184085242643</v>
+        <v>0.000402542098167642</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -664,46 +664,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.8896923333333334</v>
+        <v>1.066124666666667</v>
       </c>
       <c r="H4">
-        <v>2.669077</v>
+        <v>3.198374</v>
       </c>
       <c r="I4">
-        <v>0.09326752961394506</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="J4">
-        <v>0.09326752961394505</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>18.40564566666667</v>
+        <v>0.03076233333333333</v>
       </c>
       <c r="N4">
-        <v>55.216937</v>
+        <v>0.09228699999999999</v>
       </c>
       <c r="O4">
-        <v>0.9503421275147966</v>
+        <v>0.001074543352259254</v>
       </c>
       <c r="P4">
-        <v>0.9503421275147965</v>
+        <v>0.001074543352259254</v>
       </c>
       <c r="Q4">
-        <v>16.37536183968323</v>
+        <v>0.03279648237088889</v>
       </c>
       <c r="R4">
-        <v>147.378256557149</v>
+        <v>0.295168341338</v>
       </c>
       <c r="S4">
-        <v>0.08863606252136585</v>
+        <v>0.00011219452582659</v>
       </c>
       <c r="T4">
-        <v>0.08863606252136583</v>
+        <v>0.00011219452582659</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,108 +726,108 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.8896923333333334</v>
+        <v>1.066124666666667</v>
       </c>
       <c r="H5">
-        <v>2.669077</v>
+        <v>3.198374</v>
       </c>
       <c r="I5">
-        <v>0.09326752961394506</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="J5">
-        <v>0.09326752961394505</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.01411566666666667</v>
+        <v>27.52907633333334</v>
       </c>
       <c r="N5">
-        <v>0.042347</v>
+        <v>82.58722900000001</v>
       </c>
       <c r="O5">
-        <v>0.0007288368435552499</v>
+        <v>0.9616041035407232</v>
       </c>
       <c r="P5">
-        <v>0.0007288368435552499</v>
+        <v>0.9616041035407231</v>
       </c>
       <c r="Q5">
-        <v>0.01255860041322222</v>
+        <v>29.34942732951623</v>
       </c>
       <c r="R5">
-        <v>0.113027403719</v>
+        <v>264.144845965646</v>
       </c>
       <c r="S5">
-        <v>6.797681189002351E-05</v>
+        <v>0.1004023860022214</v>
       </c>
       <c r="T5">
-        <v>6.79768118900235E-05</v>
+        <v>0.1004023860022214</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>7.418580000000001</v>
+        <v>1.066124666666667</v>
       </c>
       <c r="H6">
-        <v>22.25574</v>
+        <v>3.198374</v>
       </c>
       <c r="I6">
-        <v>0.777698766101638</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="J6">
-        <v>0.777698766101638</v>
+        <v>0.1044113535211941</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.8372556666666666</v>
+        <v>0.05488933333333334</v>
       </c>
       <c r="N6">
-        <v>2.511767</v>
+        <v>0.164668</v>
       </c>
       <c r="O6">
-        <v>0.04323017762831462</v>
+        <v>0.001917311265181737</v>
       </c>
       <c r="P6">
-        <v>0.04323017762831462</v>
+        <v>0.001917311265181736</v>
       </c>
       <c r="Q6">
-        <v>6.211248143620001</v>
+        <v>0.05851887220355557</v>
       </c>
       <c r="R6">
-        <v>55.90123329258</v>
+        <v>0.526669849832</v>
       </c>
       <c r="S6">
-        <v>0.03362005579989492</v>
+        <v>0.0002001890643190583</v>
       </c>
       <c r="T6">
-        <v>0.03362005579989492</v>
+        <v>0.0002001890643190582</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,13 +835,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,40 +856,40 @@
         <v>22.25574</v>
       </c>
       <c r="I7">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="J7">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.110372</v>
+        <v>0.903185</v>
       </c>
       <c r="N7">
-        <v>0.331116</v>
+        <v>2.709555</v>
       </c>
       <c r="O7">
-        <v>0.00569885801333365</v>
+        <v>0.03154869388788047</v>
       </c>
       <c r="P7">
-        <v>0.00569885801333365</v>
+        <v>0.03154869388788046</v>
       </c>
       <c r="Q7">
-        <v>0.81880351176</v>
+        <v>6.700350177300002</v>
       </c>
       <c r="R7">
-        <v>7.36923160584</v>
+        <v>60.30315159570001</v>
       </c>
       <c r="S7">
-        <v>0.004431994845158012</v>
+        <v>0.02292144024816365</v>
       </c>
       <c r="T7">
-        <v>0.004431994845158012</v>
+        <v>0.02292144024816364</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,13 +897,13 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -918,40 +918,40 @@
         <v>22.25574</v>
       </c>
       <c r="I8">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="J8">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>18.40564566666667</v>
+        <v>0.110372</v>
       </c>
       <c r="N8">
-        <v>55.216937</v>
+        <v>0.331116</v>
       </c>
       <c r="O8">
-        <v>0.9503421275147966</v>
+        <v>0.003855347953955327</v>
       </c>
       <c r="P8">
-        <v>0.9503421275147965</v>
+        <v>0.003855347953955326</v>
       </c>
       <c r="Q8">
-        <v>136.54375482982</v>
+        <v>0.81880351176</v>
       </c>
       <c r="R8">
-        <v>1228.89379346838</v>
+        <v>7.36923160584</v>
       </c>
       <c r="S8">
-        <v>0.7390798999426629</v>
+        <v>0.002801070880351553</v>
       </c>
       <c r="T8">
-        <v>0.7390798999426628</v>
+        <v>0.002801070880351553</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,13 +959,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -980,10 +980,10 @@
         <v>22.25574</v>
       </c>
       <c r="I9">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="J9">
-        <v>0.777698766101638</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,42 +992,42 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.01411566666666667</v>
+        <v>0.03076233333333333</v>
       </c>
       <c r="N9">
-        <v>0.042347</v>
+        <v>0.09228699999999999</v>
       </c>
       <c r="O9">
-        <v>0.0007288368435552499</v>
+        <v>0.001074543352259254</v>
       </c>
       <c r="P9">
-        <v>0.0007288368435552499</v>
+        <v>0.001074543352259254</v>
       </c>
       <c r="Q9">
-        <v>0.10471820242</v>
+        <v>0.22821283082</v>
       </c>
       <c r="R9">
-        <v>0.9424638217800002</v>
+        <v>2.05391547738</v>
       </c>
       <c r="S9">
-        <v>0.0005668155139223304</v>
+        <v>0.0007807005047626929</v>
       </c>
       <c r="T9">
-        <v>0.0005668155139223304</v>
+        <v>0.0007807005047626929</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.298413</v>
+        <v>7.418580000000001</v>
       </c>
       <c r="H10">
-        <v>0.895239</v>
+        <v>22.25574</v>
       </c>
       <c r="I10">
-        <v>0.031282997809377</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="J10">
-        <v>0.03128299780937701</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,43 +1054,43 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.8372556666666666</v>
+        <v>27.52907633333334</v>
       </c>
       <c r="N10">
-        <v>2.511767</v>
+        <v>82.58722900000001</v>
       </c>
       <c r="O10">
-        <v>0.04323017762831462</v>
+        <v>0.9616041035407232</v>
       </c>
       <c r="P10">
-        <v>0.04323017762831462</v>
+        <v>0.9616041035407231</v>
       </c>
       <c r="Q10">
-        <v>0.249847975257</v>
+        <v>204.2266551049401</v>
       </c>
       <c r="R10">
-        <v>2.248631777313</v>
+        <v>1838.03989594446</v>
       </c>
       <c r="S10">
-        <v>0.001352369552045545</v>
+        <v>0.698645436163838</v>
       </c>
       <c r="T10">
-        <v>0.001352369552045545</v>
+        <v>0.6986454361638379</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>21</v>
-      </c>
       <c r="E11">
         <v>3</v>
       </c>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.298413</v>
+        <v>7.418580000000001</v>
       </c>
       <c r="H11">
-        <v>0.895239</v>
+        <v>22.25574</v>
       </c>
       <c r="I11">
-        <v>0.031282997809377</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="J11">
-        <v>0.03128299780937701</v>
+        <v>0.7265416542955204</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1116,28 +1116,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.110372</v>
+        <v>0.05488933333333334</v>
       </c>
       <c r="N11">
-        <v>0.331116</v>
+        <v>0.164668</v>
       </c>
       <c r="O11">
-        <v>0.00569885801333365</v>
+        <v>0.001917311265181737</v>
       </c>
       <c r="P11">
-        <v>0.00569885801333365</v>
+        <v>0.001917311265181736</v>
       </c>
       <c r="Q11">
-        <v>0.03293643963599999</v>
+        <v>0.4072009104800001</v>
       </c>
       <c r="R11">
-        <v>0.296427956724</v>
+        <v>3.664808194320001</v>
       </c>
       <c r="S11">
-        <v>0.0001782773627470672</v>
+        <v>0.001393006498404576</v>
       </c>
       <c r="T11">
-        <v>0.0001782773627470672</v>
+        <v>0.001393006498404576</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,31 +1145,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.298413</v>
+        <v>0.4336433333333334</v>
       </c>
       <c r="H12">
-        <v>0.895239</v>
+        <v>1.30093</v>
       </c>
       <c r="I12">
-        <v>0.031282997809377</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="J12">
-        <v>0.03128299780937701</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>18.40564566666667</v>
+        <v>0.903185</v>
       </c>
       <c r="N12">
-        <v>55.216937</v>
+        <v>2.709555</v>
       </c>
       <c r="O12">
-        <v>0.9503421275147966</v>
+        <v>0.03154869388788047</v>
       </c>
       <c r="P12">
-        <v>0.9503421275147965</v>
+        <v>0.03154869388788046</v>
       </c>
       <c r="Q12">
-        <v>5.492483940327</v>
+        <v>0.3916601540166667</v>
       </c>
       <c r="R12">
-        <v>49.432355462943</v>
+        <v>3.524941386150001</v>
       </c>
       <c r="S12">
-        <v>0.02972955069320406</v>
+        <v>0.001339842632149888</v>
       </c>
       <c r="T12">
-        <v>0.02972955069320407</v>
+        <v>0.001339842632149887</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,247 +1207,247 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.298413</v>
+        <v>0.4336433333333334</v>
       </c>
       <c r="H13">
-        <v>0.895239</v>
+        <v>1.30093</v>
       </c>
       <c r="I13">
-        <v>0.031282997809377</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="J13">
-        <v>0.03128299780937701</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.01411566666666667</v>
+        <v>0.110372</v>
       </c>
       <c r="N13">
-        <v>0.042347</v>
+        <v>0.331116</v>
       </c>
       <c r="O13">
-        <v>0.0007288368435552499</v>
+        <v>0.003855347953955327</v>
       </c>
       <c r="P13">
-        <v>0.0007288368435552499</v>
+        <v>0.003855347953955326</v>
       </c>
       <c r="Q13">
-        <v>0.004212298437</v>
+        <v>0.04786208198666667</v>
       </c>
       <c r="R13">
-        <v>0.037910685933</v>
+        <v>0.43075873788</v>
       </c>
       <c r="S13">
-        <v>2.280020138033213E-05</v>
+        <v>0.0001637329129642845</v>
       </c>
       <c r="T13">
-        <v>2.280020138033214E-05</v>
+        <v>0.0001637329129642845</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.932458</v>
+        <v>0.4336433333333334</v>
       </c>
       <c r="H14">
-        <v>2.797374</v>
+        <v>1.30093</v>
       </c>
       <c r="I14">
-        <v>0.09775070647503985</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="J14">
-        <v>0.09775070647503985</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.8372556666666666</v>
+        <v>0.03076233333333333</v>
       </c>
       <c r="N14">
-        <v>2.511767</v>
+        <v>0.09228699999999999</v>
       </c>
       <c r="O14">
-        <v>0.04323017762831462</v>
+        <v>0.001074543352259254</v>
       </c>
       <c r="P14">
-        <v>0.04323017762831462</v>
+        <v>0.001074543352259254</v>
       </c>
       <c r="Q14">
-        <v>0.7807057444286666</v>
+        <v>0.01333988076777778</v>
       </c>
       <c r="R14">
-        <v>7.026351699858</v>
+        <v>0.12005892691</v>
       </c>
       <c r="S14">
-        <v>0.004225780404209217</v>
+        <v>4.563482084446215E-05</v>
       </c>
       <c r="T14">
-        <v>0.004225780404209217</v>
+        <v>4.563482084446215E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.932458</v>
+        <v>0.4336433333333334</v>
       </c>
       <c r="H15">
-        <v>2.797374</v>
+        <v>1.30093</v>
       </c>
       <c r="I15">
-        <v>0.09775070647503985</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="J15">
-        <v>0.09775070647503985</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.110372</v>
+        <v>27.52907633333334</v>
       </c>
       <c r="N15">
-        <v>0.331116</v>
+        <v>82.58722900000001</v>
       </c>
       <c r="O15">
-        <v>0.00569885801333365</v>
+        <v>0.9616041035407232</v>
       </c>
       <c r="P15">
-        <v>0.00569885801333365</v>
+        <v>0.9616041035407231</v>
       </c>
       <c r="Q15">
-        <v>0.102917254376</v>
+        <v>11.93780042477445</v>
       </c>
       <c r="R15">
-        <v>0.9262552893839999</v>
+        <v>107.44020382297</v>
       </c>
       <c r="S15">
-        <v>0.0005570673969043064</v>
+        <v>0.04083839976871682</v>
       </c>
       <c r="T15">
-        <v>0.0005570673969043064</v>
+        <v>0.04083839976871682</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.932458</v>
+        <v>0.4336433333333334</v>
       </c>
       <c r="H16">
-        <v>2.797374</v>
+        <v>1.30093</v>
       </c>
       <c r="I16">
-        <v>0.09775070647503985</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="J16">
-        <v>0.09775070647503985</v>
+        <v>0.04246903649677213</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>18.40564566666667</v>
+        <v>0.05488933333333334</v>
       </c>
       <c r="N16">
-        <v>55.216937</v>
+        <v>0.164668</v>
       </c>
       <c r="O16">
-        <v>0.9503421275147966</v>
+        <v>0.001917311265181737</v>
       </c>
       <c r="P16">
-        <v>0.9503421275147965</v>
+        <v>0.001917311265181736</v>
       </c>
       <c r="Q16">
-        <v>17.16249154704867</v>
+        <v>0.02380239347111112</v>
       </c>
       <c r="R16">
-        <v>154.462423923438</v>
+        <v>0.21422154124</v>
       </c>
       <c r="S16">
-        <v>0.09289661435756377</v>
+        <v>8.142636209667552E-05</v>
       </c>
       <c r="T16">
-        <v>0.09289661435756376</v>
+        <v>8.142636209667552E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,619 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.951285</v>
+      </c>
+      <c r="H17">
+        <v>2.853855</v>
+      </c>
+      <c r="I17">
+        <v>0.09316448398568379</v>
+      </c>
+      <c r="J17">
+        <v>0.09316448398568379</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.903185</v>
+      </c>
+      <c r="N17">
+        <v>2.709555</v>
+      </c>
+      <c r="O17">
+        <v>0.03154869388788047</v>
+      </c>
+      <c r="P17">
+        <v>0.03154869388788046</v>
+      </c>
+      <c r="Q17">
+        <v>0.8591863427250001</v>
+      </c>
+      <c r="R17">
+        <v>7.732677084525</v>
+      </c>
+      <c r="S17">
+        <v>0.00293921778648668</v>
+      </c>
+      <c r="T17">
+        <v>0.002939217786486679</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.951285</v>
+      </c>
+      <c r="H18">
+        <v>2.853855</v>
+      </c>
+      <c r="I18">
+        <v>0.09316448398568379</v>
+      </c>
+      <c r="J18">
+        <v>0.09316448398568379</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M18">
+        <v>0.110372</v>
+      </c>
+      <c r="N18">
+        <v>0.331116</v>
+      </c>
+      <c r="O18">
+        <v>0.003855347953955327</v>
+      </c>
+      <c r="P18">
+        <v>0.003855347953955326</v>
+      </c>
+      <c r="Q18">
+        <v>0.10499522802</v>
+      </c>
+      <c r="R18">
+        <v>0.94495705218</v>
+      </c>
+      <c r="S18">
+        <v>0.0003591815027155098</v>
+      </c>
+      <c r="T18">
+        <v>0.0003591815027155098</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.951285</v>
+      </c>
+      <c r="H19">
+        <v>2.853855</v>
+      </c>
+      <c r="I19">
+        <v>0.09316448398568379</v>
+      </c>
+      <c r="J19">
+        <v>0.09316448398568379</v>
+      </c>
+      <c r="K19">
+        <v>1</v>
+      </c>
+      <c r="L19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M19">
+        <v>0.03076233333333333</v>
+      </c>
+      <c r="N19">
+        <v>0.09228699999999999</v>
+      </c>
+      <c r="O19">
+        <v>0.001074543352259254</v>
+      </c>
+      <c r="P19">
+        <v>0.001074543352259254</v>
+      </c>
+      <c r="Q19">
+        <v>0.029263746265</v>
+      </c>
+      <c r="R19">
+        <v>0.263373716385</v>
+      </c>
+      <c r="S19">
+        <v>0.0001001092769334803</v>
+      </c>
+      <c r="T19">
+        <v>0.0001001092769334803</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.951285</v>
+      </c>
+      <c r="H20">
+        <v>2.853855</v>
+      </c>
+      <c r="I20">
+        <v>0.09316448398568379</v>
+      </c>
+      <c r="J20">
+        <v>0.09316448398568379</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>27.52907633333334</v>
+      </c>
+      <c r="N20">
+        <v>82.58722900000001</v>
+      </c>
+      <c r="O20">
+        <v>0.9616041035407232</v>
+      </c>
+      <c r="P20">
+        <v>0.9616041035407231</v>
+      </c>
+      <c r="Q20">
+        <v>26.187997379755</v>
+      </c>
+      <c r="R20">
+        <v>235.691976417795</v>
+      </c>
+      <c r="S20">
+        <v>0.08958735010488753</v>
+      </c>
+      <c r="T20">
+        <v>0.08958735010488751</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>0.932458</v>
-      </c>
-      <c r="H17">
-        <v>2.797374</v>
-      </c>
-      <c r="I17">
-        <v>0.09775070647503985</v>
-      </c>
-      <c r="J17">
-        <v>0.09775070647503985</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.951285</v>
+      </c>
+      <c r="H21">
+        <v>2.853855</v>
+      </c>
+      <c r="I21">
+        <v>0.09316448398568379</v>
+      </c>
+      <c r="J21">
+        <v>0.09316448398568379</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.05488933333333334</v>
+      </c>
+      <c r="N21">
+        <v>0.164668</v>
+      </c>
+      <c r="O21">
+        <v>0.001917311265181737</v>
+      </c>
+      <c r="P21">
+        <v>0.001917311265181736</v>
+      </c>
+      <c r="Q21">
+        <v>0.05221539946000001</v>
+      </c>
+      <c r="R21">
+        <v>0.4699385951400001</v>
+      </c>
+      <c r="S21">
+        <v>0.000178625314660595</v>
+      </c>
+      <c r="T21">
+        <v>0.000178625314660595</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.3411786666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.023536</v>
+      </c>
+      <c r="I22">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="J22">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>0.903185</v>
+      </c>
+      <c r="N22">
+        <v>2.709555</v>
+      </c>
+      <c r="O22">
+        <v>0.03154869388788047</v>
+      </c>
+      <c r="P22">
+        <v>0.03154869388788046</v>
+      </c>
+      <c r="Q22">
+        <v>0.3081474540533334</v>
+      </c>
+      <c r="R22">
+        <v>2.77332708648</v>
+      </c>
+      <c r="S22">
+        <v>0.001054151390420827</v>
+      </c>
+      <c r="T22">
+        <v>0.001054151390420827</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.3411786666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.023536</v>
+      </c>
+      <c r="I23">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="J23">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.110372</v>
+      </c>
+      <c r="N23">
+        <v>0.331116</v>
+      </c>
+      <c r="O23">
+        <v>0.003855347953955327</v>
+      </c>
+      <c r="P23">
+        <v>0.003855347953955326</v>
+      </c>
+      <c r="Q23">
+        <v>0.03765657179733333</v>
+      </c>
+      <c r="R23">
+        <v>0.338909146176</v>
+      </c>
+      <c r="S23">
+        <v>0.0001288205597563373</v>
+      </c>
+      <c r="T23">
+        <v>0.0001288205597563373</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.3411786666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.023536</v>
+      </c>
+      <c r="I24">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="J24">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M17">
-        <v>0.01411566666666667</v>
-      </c>
-      <c r="N17">
-        <v>0.042347</v>
-      </c>
-      <c r="O17">
-        <v>0.0007288368435552499</v>
-      </c>
-      <c r="P17">
-        <v>0.0007288368435552499</v>
-      </c>
-      <c r="Q17">
-        <v>0.01316226630866667</v>
-      </c>
-      <c r="R17">
-        <v>0.118460396778</v>
-      </c>
-      <c r="S17">
-        <v>7.124431636256377E-05</v>
-      </c>
-      <c r="T17">
-        <v>7.124431636256377E-05</v>
+      <c r="M24">
+        <v>0.03076233333333333</v>
+      </c>
+      <c r="N24">
+        <v>0.09228699999999999</v>
+      </c>
+      <c r="O24">
+        <v>0.001074543352259254</v>
+      </c>
+      <c r="P24">
+        <v>0.001074543352259254</v>
+      </c>
+      <c r="Q24">
+        <v>0.01049545187022222</v>
+      </c>
+      <c r="R24">
+        <v>0.09445906683199999</v>
+      </c>
+      <c r="S24">
+        <v>3.590422389202909E-05</v>
+      </c>
+      <c r="T24">
+        <v>3.590422389202909E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.3411786666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.023536</v>
+      </c>
+      <c r="I25">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="J25">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>27.52907633333334</v>
+      </c>
+      <c r="N25">
+        <v>82.58722900000001</v>
+      </c>
+      <c r="O25">
+        <v>0.9616041035407232</v>
+      </c>
+      <c r="P25">
+        <v>0.9616041035407231</v>
+      </c>
+      <c r="Q25">
+        <v>9.392333557971558</v>
+      </c>
+      <c r="R25">
+        <v>84.531002021744</v>
+      </c>
+      <c r="S25">
+        <v>0.0321305315010595</v>
+      </c>
+      <c r="T25">
+        <v>0.0321305315010595</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.3411786666666667</v>
+      </c>
+      <c r="H26">
+        <v>1.023536</v>
+      </c>
+      <c r="I26">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="J26">
+        <v>0.03341347170082953</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M26">
+        <v>0.05488933333333334</v>
+      </c>
+      <c r="N26">
+        <v>0.164668</v>
+      </c>
+      <c r="O26">
+        <v>0.001917311265181737</v>
+      </c>
+      <c r="P26">
+        <v>0.001917311265181736</v>
+      </c>
+      <c r="Q26">
+        <v>0.01872706956088889</v>
+      </c>
+      <c r="R26">
+        <v>0.168543626048</v>
+      </c>
+      <c r="S26">
+        <v>6.406402570083162E-05</v>
+      </c>
+      <c r="T26">
+        <v>6.40640257008316E-05</v>
       </c>
     </row>
   </sheetData>
